--- a/Team27_RougeLike/Team27_RougeLike/Team27_RougeLikeContent/QuestCSV/Quest.xlsx
+++ b/Team27_RougeLike/Team27_RougeLike/Team27_RougeLikeContent/QuestCSV/Quest.xlsx
@@ -43,13 +43,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>難易度（0－5）</t>
-    <rPh sb="0" eb="3">
-      <t>ナンイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>報酬金</t>
     <rPh sb="0" eb="2">
       <t>ホウシュウ</t>
@@ -188,6 +181,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>スウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>難易度（0－6）(F~S)</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -517,14 +517,14 @@
   <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -543,43 +543,43 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
       <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
         <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
@@ -587,13 +587,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -602,13 +602,13 @@
         <v>300</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -623,16 +623,16 @@
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
@@ -640,13 +640,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -658,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
@@ -693,13 +693,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -708,13 +708,13 @@
         <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">

--- a/Team27_RougeLike/Team27_RougeLike/Team27_RougeLikeContent/QuestCSV/Quest.xlsx
+++ b/Team27_RougeLike/Team27_RougeLike/Team27_RougeLikeContent/QuestCSV/Quest.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Start</t>
     <phoneticPr fontId="1"/>
@@ -189,6 +189,10 @@
     <rPh sb="0" eb="3">
       <t>ナンイド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギルドポイント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -514,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -527,9 +531,10 @@
     <col min="5" max="5" width="19.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +586,11 @@
       <c r="Q1" t="s">
         <v>25</v>
       </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -634,8 +642,11 @@
       <c r="Q2" t="s">
         <v>23</v>
       </c>
+      <c r="R2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -687,8 +698,11 @@
       <c r="Q3" t="s">
         <v>23</v>
       </c>
+      <c r="R3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -740,8 +754,11 @@
       <c r="Q4" t="s">
         <v>23</v>
       </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
